--- a/data/MasterData.xlsx
+++ b/data/MasterData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\167295724\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guglielmosanchini/Desktop/VSCProjects/Personal/Test__Workforce-Scheduling-DOCPLEX-Examples_CP/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66D27F3-06AE-4E03-8C23-6C8DC1576452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66614D9F-9DA5-6842-9C4C-5330ACCF8BA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{66C3BCED-0EB2-4BA9-99FE-4EE5284AB462}"/>
+    <workbookView xWindow="1300" yWindow="680" windowWidth="28620" windowHeight="18660" activeTab="4" xr2:uid="{66C3BCED-0EB2-4BA9-99FE-4EE5284AB462}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="160">
   <si>
     <t>name</t>
   </si>
@@ -529,7 +529,19 @@
     <t>setuptime</t>
   </si>
   <si>
-    <t>eligible?</t>
+    <t>eligible</t>
+  </si>
+  <si>
+    <t>department_id_from</t>
+  </si>
+  <si>
+    <t>department_from</t>
+  </si>
+  <si>
+    <t>department_id_to</t>
+  </si>
+  <si>
+    <t>department_to</t>
   </si>
 </sst>
 </file>
@@ -627,7 +639,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -657,11 +669,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -985,20 +994,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0452A62F-0DBC-4BAA-9515-E253DA370F02}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="8.83203125" style="10"/>
     <col min="2" max="3" width="15.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" style="8"/>
-    <col min="5" max="5" width="11.109375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="8"/>
+    <col min="4" max="4" width="8.83203125" style="8"/>
+    <col min="5" max="5" width="11.1640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1018,7 +1027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1038,7 +1047,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1058,7 +1067,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
@@ -1078,7 +1087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
@@ -1098,7 +1107,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -1118,7 +1127,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>9</v>
       </c>
@@ -1138,7 +1147,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>10</v>
       </c>
@@ -1158,7 +1167,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
@@ -1178,7 +1187,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
@@ -1198,7 +1207,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -1218,7 +1227,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>14</v>
       </c>
@@ -1238,7 +1247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
@@ -1258,7 +1267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
@@ -1278,7 +1287,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
@@ -1298,7 +1307,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>18</v>
       </c>
@@ -1318,7 +1327,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -1338,7 +1347,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>20</v>
       </c>
@@ -1358,7 +1367,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>21</v>
       </c>
@@ -1378,7 +1387,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>22</v>
       </c>
@@ -1398,7 +1407,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
         <v>23</v>
       </c>
@@ -1418,7 +1427,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
         <v>24</v>
       </c>
@@ -1438,7 +1447,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
@@ -1458,7 +1467,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
         <v>26</v>
       </c>
@@ -1478,7 +1487,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="5" t="s">
         <v>27</v>
       </c>
@@ -1498,7 +1507,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="5" t="s">
         <v>28</v>
       </c>
@@ -1518,7 +1527,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>29</v>
       </c>
@@ -1538,7 +1547,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>30</v>
       </c>
@@ -1558,7 +1567,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>31</v>
       </c>
@@ -1578,7 +1587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
         <v>32</v>
       </c>
@@ -1598,7 +1607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
         <v>33</v>
       </c>
@@ -1618,7 +1627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
         <v>34</v>
       </c>
@@ -1638,7 +1647,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>35</v>
       </c>
@@ -1668,1945 +1677,1945 @@
   <dimension ref="A1:C161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="9.83203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C2" s="12" t="str">
+      <c r="C2" s="2" t="str">
         <f ca="1">IF(RAND()&lt;=0.4,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="12" t="str">
+      <c r="C3" s="2" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="0">IF(RAND()&lt;=0.4,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C4" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C5" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C5" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C7" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C8" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C9" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C9" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C10" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C10" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C11" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C12" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C12" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C13" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C14" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C14" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C15" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C15" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C16" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C20" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C22" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C23" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C24" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C25" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C26" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C27" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C28" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C28" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C29" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C29" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C30" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C31" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C32" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C33" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C34" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C35" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C37" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C38" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C39" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C40" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C41" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C41" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C42" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C43" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C43" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C44" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C44" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C45" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C45" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C46" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C46" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C47" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C47" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C48" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C49" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C49" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C50" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C50" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C51" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C51" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C52" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C53" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C53" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C54" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C54" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C55" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C55" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C56" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C56" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C57" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C57" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C58" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C58" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C59" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C59" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C60" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C60" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C61" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C61" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C62" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C62" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C63" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C63" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B64" s="12" t="s">
+      <c r="B64" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C64" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C64" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C65" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C65" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C66" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C66" s="2" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C67" s="12" t="str">
+      <c r="C67" s="2" t="str">
         <f t="shared" ref="C67:C129" ca="1" si="1">IF(RAND()&lt;=0.4,"Yes","No")</f>
         <v>Yes</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C68" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C68" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C69" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C69" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C70" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C70" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C71" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C71" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B72" s="12" t="s">
+      <c r="B72" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C72" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C72" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C73" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C73" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B74" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C74" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C74" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C75" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C75" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C76" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C76" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C77" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C77" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C78" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C78" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C79" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C79" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C80" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C80" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C81" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C81" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B82" s="12" t="s">
+      <c r="B82" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C82" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C82" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C83" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C83" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B84" s="12" t="s">
+      <c r="B84" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C84" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C84" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C85" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C85" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C86" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C86" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C87" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C87" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B88" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C88" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C88" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C89" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C89" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B90" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C90" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C90" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C91" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C91" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B92" s="12" t="s">
+      <c r="B92" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C92" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C92" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C93" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C93" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B94" s="12" t="s">
+      <c r="B94" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C94" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C94" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C95" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C95" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B96" s="12" t="s">
+      <c r="B96" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C96" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C96" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C97" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C97" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="B98" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C98" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C98" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C99" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C99" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B100" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C100" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C100" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C101" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C101" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B102" s="12" t="s">
+      <c r="B102" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C102" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C102" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B103" s="12" t="s">
+      <c r="B103" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C103" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C103" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B104" s="12" t="s">
+      <c r="B104" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C104" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C104" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B105" s="12" t="s">
+      <c r="B105" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C105" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C105" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B106" s="12" t="s">
+      <c r="B106" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C106" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C106" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B107" s="12" t="s">
+      <c r="B107" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C107" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C107" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B108" s="12" t="s">
+      <c r="B108" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C108" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C108" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B109" s="12" t="s">
+      <c r="B109" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C109" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C109" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="B110" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C110" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C110" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B111" s="12" t="s">
+      <c r="B111" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C111" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C111" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B112" s="12" t="s">
+      <c r="B112" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C112" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C112" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C113" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C113" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B114" s="12" t="s">
+      <c r="B114" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C114" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C114" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C115" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C115" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B116" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C116" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C116" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C117" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C117" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B118" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C118" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C118" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C119" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C119" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B120" s="12" t="s">
+      <c r="B120" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C120" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C120" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="B121" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C121" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C121" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B122" s="12" t="s">
+      <c r="B122" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C122" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C122" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B123" s="12" t="s">
+      <c r="B123" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C123" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C123" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B124" s="12" t="s">
+      <c r="B124" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C124" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C124" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B125" s="12" t="s">
+      <c r="B125" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C125" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C125" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B126" s="12" t="s">
+      <c r="B126" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C126" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C126" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B127" s="12" t="s">
+      <c r="B127" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C127" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C127" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B128" s="12" t="s">
+      <c r="B128" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C128" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C128" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B129" s="12" t="s">
+      <c r="B129" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C129" s="12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C129" s="2" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B130" s="12" t="s">
+      <c r="B130" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C130" s="12" t="str">
+      <c r="C130" s="2" t="str">
         <f t="shared" ref="C130:C161" ca="1" si="2">IF(RAND()&lt;=0.4,"Yes","No")</f>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B131" s="12" t="s">
+      <c r="B131" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C131" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C131" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B132" s="12" t="s">
+      <c r="B132" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C132" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C132" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B133" s="12" t="s">
+      <c r="B133" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C133" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C133" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B134" s="12" t="s">
+      <c r="B134" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C134" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C134" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B135" s="12" t="s">
+      <c r="B135" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C135" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C135" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B136" s="12" t="s">
+      <c r="B136" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C136" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C136" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B137" s="12" t="s">
+      <c r="B137" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C137" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C137" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B138" s="12" t="s">
+      <c r="B138" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C138" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C138" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B139" s="12" t="s">
+      <c r="B139" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C139" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C139" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B140" s="12" t="s">
+      <c r="B140" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C140" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C140" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B141" s="12" t="s">
+      <c r="B141" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C141" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C141" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B142" s="12" t="s">
+      <c r="B142" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C142" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C142" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B143" s="12" t="s">
+      <c r="B143" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C143" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C143" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B144" s="12" t="s">
+      <c r="B144" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C144" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C144" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B145" s="12" t="s">
+      <c r="B145" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C145" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C145" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="B146" s="12" t="s">
+      <c r="B146" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C146" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C146" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="B147" s="12" t="s">
+      <c r="B147" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C147" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C147" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="B148" s="12" t="s">
+      <c r="B148" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C148" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C148" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B149" s="12" t="s">
+      <c r="B149" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C149" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C149" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B150" s="12" t="s">
+      <c r="B150" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C150" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C150" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B151" s="12" t="s">
+      <c r="B151" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C151" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C151" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B152" s="12" t="s">
+      <c r="B152" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C152" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C152" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B153" s="12" t="s">
+      <c r="B153" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C153" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C153" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B154" s="12" t="s">
+      <c r="B154" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C154" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C154" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B155" s="12" t="s">
+      <c r="B155" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C155" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C155" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B156" s="12" t="s">
+      <c r="B156" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C156" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C156" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B157" s="12" t="s">
+      <c r="B157" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C157" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Yes</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C157" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B158" s="12" t="s">
+      <c r="B158" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C158" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C158" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>No</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B159" s="12" t="s">
+      <c r="B159" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C159" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C159" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B160" s="12" t="s">
+      <c r="B160" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C160" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>No</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C160" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Yes</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B161" s="12" t="s">
+      <c r="B161" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C161" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
-        <v>Yes</v>
+      <c r="C161" s="2" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>No</v>
       </c>
     </row>
   </sheetData>
@@ -3622,21 +3631,21 @@
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" style="6" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>148</v>
       </c>
@@ -3644,7 +3653,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>149</v>
       </c>
@@ -3652,7 +3661,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>150</v>
       </c>
@@ -3660,7 +3669,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>151</v>
       </c>
@@ -3668,7 +3677,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>152</v>
       </c>
@@ -3690,69 +3699,69 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.83203125" style="6"/>
     <col min="2" max="2" width="14.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>41</v>
       </c>
       <c r="B2" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B2" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Pediatrics</v>
+        <v>Geriatrics</v>
       </c>
       <c r="C2" s="8">
         <f ca="1">RANDBETWEEN(3,12)*10</f>
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D2" s="8">
         <f ca="1">IF(RAND()&lt;0.8,1,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B3" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Oncology</v>
+        <v>Pediatrics</v>
       </c>
       <c r="C3" s="8">
         <f t="shared" ref="C3:C66" ca="1" si="0">RANDBETWEEN(3,12)*10</f>
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D3" s="8">
         <f t="shared" ref="D3:D66" ca="1" si="1">IF(RAND()&lt;0.8,1,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B4" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Anaesthesiology</v>
+        <v>Cardiac Care</v>
       </c>
       <c r="C4" s="8">
         <f t="shared" ca="1" si="0"/>
@@ -3763,24 +3772,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B5" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Geriatrics</v>
+        <v>Oncology</v>
       </c>
       <c r="C5" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>45</v>
       </c>
@@ -3790,20 +3799,20 @@
       </c>
       <c r="C6" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D6" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>46</v>
       </c>
       <c r="B7" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B7" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Geriatrics</v>
+        <v>Cardiac Care</v>
       </c>
       <c r="C7" s="8">
         <f t="shared" ca="1" si="0"/>
@@ -3811,84 +3820,84 @@
       </c>
       <c r="D7" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B8" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Oncology</v>
+        <v>Anaesthesiology</v>
       </c>
       <c r="C8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D8" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B9" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B9" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Geriatrics</v>
+        <v>Anaesthesiology</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>49</v>
       </c>
       <c r="B10" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B10" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Anaesthesiology</v>
+        <v>Cardiac Care</v>
       </c>
       <c r="C10" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D10" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B11" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B11" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Pediatrics</v>
+        <v>Oncology</v>
       </c>
       <c r="C11" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D11" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>51</v>
       </c>
       <c r="B12" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B12" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Anaesthesiology</v>
+        <v>Geriatrics</v>
       </c>
       <c r="C12" s="8">
         <f t="shared" ca="1" si="0"/>
@@ -3899,13 +3908,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B13" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B13" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Pediatrics</v>
+        <v>Cardiac Care</v>
       </c>
       <c r="C13" s="8">
         <f t="shared" ca="1" si="0"/>
@@ -3913,61 +3922,61 @@
       </c>
       <c r="D13" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B14" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B14" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Anaesthesiology</v>
+        <v>Cardiac Care</v>
       </c>
       <c r="C14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="D14" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>54</v>
       </c>
       <c r="B15" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B15" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Anaesthesiology</v>
+        <v>Oncology</v>
       </c>
       <c r="C15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D15" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>55</v>
       </c>
       <c r="B16" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B16" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Cardiac Care</v>
+        <v>Pediatrics</v>
       </c>
       <c r="C16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>56</v>
       </c>
@@ -3977,105 +3986,105 @@
       </c>
       <c r="C17" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="D17" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B18" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B18" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Cardiac Care</v>
+        <v>Pediatrics</v>
       </c>
       <c r="C18" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D18" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>58</v>
       </c>
       <c r="B19" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B19" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Pediatrics</v>
+        <v>Oncology</v>
       </c>
       <c r="C19" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D19" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B20" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B20" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Anaesthesiology</v>
+        <v>Pediatrics</v>
       </c>
       <c r="C20" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="D20" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B21" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B21" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Cardiac Care</v>
+        <v>Geriatrics</v>
       </c>
       <c r="C21" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D21" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>61</v>
       </c>
       <c r="B22" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B22" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Anaesthesiology</v>
+        <v>Pediatrics</v>
       </c>
       <c r="C22" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="D22" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B23" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B23" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Cardiac Care</v>
+        <v>Anaesthesiology</v>
       </c>
       <c r="C23" s="8">
         <f t="shared" ca="1" si="0"/>
@@ -4083,10 +4092,10 @@
       </c>
       <c r="D23" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>63</v>
       </c>
@@ -4096,99 +4105,99 @@
       </c>
       <c r="C24" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>120</v>
+        <v>30</v>
       </c>
       <c r="D24" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B25" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B25" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Anaesthesiology</v>
+        <v>Geriatrics</v>
       </c>
       <c r="C25" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D25" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B26" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B26" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Geriatrics</v>
+        <v>Oncology</v>
       </c>
       <c r="C26" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D26" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>66</v>
       </c>
       <c r="B27" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B27" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Pediatrics</v>
+        <v>Anaesthesiology</v>
       </c>
       <c r="C27" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D27" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B28" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B28" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Geriatrics</v>
+        <v>Anaesthesiology</v>
       </c>
       <c r="C28" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D28" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B29" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B29" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Pediatrics</v>
+        <v>Anaesthesiology</v>
       </c>
       <c r="C29" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D29" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>69</v>
       </c>
@@ -4198,82 +4207,82 @@
       </c>
       <c r="C30" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D30" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>70</v>
       </c>
       <c r="B31" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B31" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Pediatrics</v>
+        <v>Cardiac Care</v>
       </c>
       <c r="C31" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D31" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B32" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B32" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Anaesthesiology</v>
+        <v>Geriatrics</v>
       </c>
       <c r="C32" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="D32" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B33" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B33" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Pediatrics</v>
+        <v>Oncology</v>
       </c>
       <c r="C33" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D33" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>73</v>
       </c>
       <c r="B34" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B34" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Pediatrics</v>
+        <v>Oncology</v>
       </c>
       <c r="C34" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D34" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>74</v>
       </c>
@@ -4283,122 +4292,122 @@
       </c>
       <c r="C35" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D35" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B36" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B36" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Geriatrics</v>
+        <v>Anaesthesiology</v>
       </c>
       <c r="C36" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D36" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B37" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Cardiac Care</v>
+        <v>Pediatrics</v>
       </c>
       <c r="C37" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D37" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B38" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B38" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Pediatrics</v>
+        <v>Anaesthesiology</v>
       </c>
       <c r="C38" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D38" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>78</v>
       </c>
       <c r="B39" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B39" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Cardiac Care</v>
+        <v>Oncology</v>
       </c>
       <c r="C39" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D39" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B40" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B40" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Geriatrics</v>
+        <v>Pediatrics</v>
       </c>
       <c r="C40" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D40" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B41" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B41" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Geriatrics</v>
+        <v>Anaesthesiology</v>
       </c>
       <c r="C41" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D41" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>81</v>
       </c>
       <c r="B42" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B42" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Cardiac Care</v>
+        <v>Pediatrics</v>
       </c>
       <c r="C42" s="8">
         <f t="shared" ca="1" si="0"/>
@@ -4409,41 +4418,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>82</v>
       </c>
       <c r="B43" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B43" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Anaesthesiology</v>
+        <v>Cardiac Care</v>
       </c>
       <c r="C43" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D43" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>83</v>
       </c>
       <c r="B44" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B44" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Pediatrics</v>
+        <v>Anaesthesiology</v>
       </c>
       <c r="C44" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D44" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>84</v>
       </c>
@@ -4453,31 +4462,31 @@
       </c>
       <c r="C45" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D45" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B46" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B46" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Anaesthesiology</v>
+        <v>Oncology</v>
       </c>
       <c r="C46" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D46" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>86</v>
       </c>
@@ -4487,48 +4496,48 @@
       </c>
       <c r="C47" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D47" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B48" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B48" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Anaesthesiology</v>
+        <v>Oncology</v>
       </c>
       <c r="C48" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="D48" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B49" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B49" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Oncology</v>
+        <v>Cardiac Care</v>
       </c>
       <c r="C49" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="D49" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>89</v>
       </c>
@@ -4538,31 +4547,31 @@
       </c>
       <c r="C50" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D50" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>90</v>
       </c>
       <c r="B51" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B51" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Geriatrics</v>
+        <v>Anaesthesiology</v>
       </c>
       <c r="C51" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D51" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>91</v>
       </c>
@@ -4572,37 +4581,37 @@
       </c>
       <c r="C52" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D52" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B53" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B53" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Oncology</v>
+        <v>Anaesthesiology</v>
       </c>
       <c r="C53" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D53" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>93</v>
       </c>
       <c r="B54" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B54" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Geriatrics</v>
+        <v>Oncology</v>
       </c>
       <c r="C54" s="8">
         <f t="shared" ca="1" si="0"/>
@@ -4613,13 +4622,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B55" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B55" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Oncology</v>
+        <v>Geriatrics</v>
       </c>
       <c r="C55" s="8">
         <f t="shared" ca="1" si="0"/>
@@ -4630,109 +4639,109 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>95</v>
       </c>
       <c r="B56" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B56" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Cardiac Care</v>
+        <v>Oncology</v>
       </c>
       <c r="C56" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D56" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>96</v>
       </c>
       <c r="B57" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B57" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Cardiac Care</v>
+        <v>Pediatrics</v>
       </c>
       <c r="C57" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D57" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B58" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B58" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Oncology</v>
+        <v>Geriatrics</v>
       </c>
       <c r="C58" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D58" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>98</v>
       </c>
       <c r="B59" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B59" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Cardiac Care</v>
+        <v>Pediatrics</v>
       </c>
       <c r="C59" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D59" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>99</v>
       </c>
       <c r="B60" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B60" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Oncology</v>
+        <v>Pediatrics</v>
       </c>
       <c r="C60" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D60" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>100</v>
       </c>
       <c r="B61" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B61" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Oncology</v>
+        <v>Cardiac Care</v>
       </c>
       <c r="C61" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D61" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>101</v>
       </c>
@@ -4749,7 +4758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>102</v>
       </c>
@@ -4759,156 +4768,156 @@
       </c>
       <c r="C63" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D63" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B64" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B64" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Geriatrics</v>
+        <v>Cardiac Care</v>
       </c>
       <c r="C64" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D64" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>104</v>
       </c>
       <c r="B65" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B65" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Cardiac Care</v>
+        <v>Pediatrics</v>
       </c>
       <c r="C65" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D65" s="8">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>105</v>
       </c>
       <c r="B66" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B66" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Cardiac Care</v>
+        <v>Pediatrics</v>
       </c>
       <c r="C66" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D66" s="8">
         <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B67" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B67" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Pediatrics</v>
+        <v>Geriatrics</v>
       </c>
       <c r="C67" s="8">
         <f t="shared" ref="C67:C101" ca="1" si="2">RANDBETWEEN(3,12)*10</f>
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D67" s="8">
         <f t="shared" ref="D67:D101" ca="1" si="3">IF(RAND()&lt;0.8,1,2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B68" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B68" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Cardiac Care</v>
+        <v>Anaesthesiology</v>
       </c>
       <c r="C68" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D68" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>108</v>
       </c>
       <c r="B69" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B69" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Anaesthesiology</v>
+        <v>Oncology</v>
       </c>
       <c r="C69" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D69" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B70" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B70" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Cardiac Care</v>
+        <v>Pediatrics</v>
       </c>
       <c r="C70" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D70" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>110</v>
       </c>
       <c r="B71" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B71" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Oncology</v>
+        <v>Pediatrics</v>
       </c>
       <c r="C71" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D71" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>111</v>
       </c>
       <c r="B72" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B72" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Cardiac Care</v>
+        <v>Anaesthesiology</v>
       </c>
       <c r="C72" s="8">
         <f t="shared" ca="1" si="2"/>
@@ -4916,16 +4925,16 @@
       </c>
       <c r="D72" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B73" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B73" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Oncology</v>
+        <v>Cardiac Care</v>
       </c>
       <c r="C73" s="8">
         <f t="shared" ca="1" si="2"/>
@@ -4936,126 +4945,126 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>113</v>
       </c>
       <c r="B74" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B74" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Oncology</v>
+        <v>Geriatrics</v>
       </c>
       <c r="C74" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D74" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>114</v>
       </c>
       <c r="B75" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B75" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Cardiac Care</v>
+        <v>Geriatrics</v>
       </c>
       <c r="C75" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D75" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B76" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B76" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Oncology</v>
+        <v>Cardiac Care</v>
       </c>
       <c r="C76" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D76" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B77" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B77" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Oncology</v>
+        <v>Cardiac Care</v>
       </c>
       <c r="C77" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="D77" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>117</v>
       </c>
       <c r="B78" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B78" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Pediatrics</v>
+        <v>Oncology</v>
       </c>
       <c r="C78" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D78" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B79" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B79" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Pediatrics</v>
+        <v>Anaesthesiology</v>
       </c>
       <c r="C79" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D79" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>119</v>
       </c>
       <c r="B80" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B80" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Geriatrics</v>
+        <v>Pediatrics</v>
       </c>
       <c r="C80" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="D80" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>120</v>
       </c>
@@ -5072,115 +5081,115 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>121</v>
       </c>
       <c r="B82" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B82" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Pediatrics</v>
+        <v>Geriatrics</v>
       </c>
       <c r="C82" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D82" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B83" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B83" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Anaesthesiology</v>
+        <v>Geriatrics</v>
       </c>
       <c r="C83" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D83" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B84" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B84" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Oncology</v>
+        <v>Geriatrics</v>
       </c>
       <c r="C84" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D84" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>124</v>
       </c>
       <c r="B85" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B85" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Anaesthesiology</v>
+        <v>Cardiac Care</v>
       </c>
       <c r="C85" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="D85" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>125</v>
       </c>
       <c r="B86" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B86" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Cardiac Care</v>
+        <v>Geriatrics</v>
       </c>
       <c r="C86" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="D86" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>126</v>
       </c>
       <c r="B87" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B87" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Oncology</v>
+        <v>Pediatrics</v>
       </c>
       <c r="C87" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D87" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>127</v>
       </c>
       <c r="B88" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B88" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Anaesthesiology</v>
+        <v>Pediatrics</v>
       </c>
       <c r="C88" s="8">
         <f t="shared" ca="1" si="2"/>
@@ -5191,47 +5200,47 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>128</v>
       </c>
       <c r="B89" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B89" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Geriatrics</v>
+        <v>Cardiac Care</v>
       </c>
       <c r="C89" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>110</v>
       </c>
       <c r="D89" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>129</v>
       </c>
       <c r="B90" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B90" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Oncology</v>
+        <v>Geriatrics</v>
       </c>
       <c r="C90" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>120</v>
       </c>
       <c r="D90" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>130</v>
       </c>
       <c r="B91" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B91" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Anaesthesiology</v>
+        <v>Cardiac Care</v>
       </c>
       <c r="C91" s="8">
         <f t="shared" ca="1" si="2"/>
@@ -5242,64 +5251,64 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>131</v>
       </c>
       <c r="B92" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B92" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Cardiac Care</v>
+        <v>Anaesthesiology</v>
       </c>
       <c r="C92" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D92" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>132</v>
       </c>
       <c r="B93" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B93" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Oncology</v>
+        <v>Cardiac Care</v>
       </c>
       <c r="C93" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D93" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>133</v>
       </c>
       <c r="B94" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B94" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Oncology</v>
+        <v>Geriatrics</v>
       </c>
       <c r="C94" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="D94" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>134</v>
       </c>
       <c r="B95" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B95" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Pediatrics</v>
+        <v>Anaesthesiology</v>
       </c>
       <c r="C95" s="8">
         <f t="shared" ca="1" si="2"/>
@@ -5310,24 +5319,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>135</v>
       </c>
       <c r="B96" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B96" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Cardiac Care</v>
+        <v>Pediatrics</v>
       </c>
       <c r="C96" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D96" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>136</v>
       </c>
@@ -5337,31 +5346,31 @@
       </c>
       <c r="C97" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="D97" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>137</v>
       </c>
       <c r="B98" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B98" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Oncology</v>
+        <v>Geriatrics</v>
       </c>
       <c r="C98" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="D98" s="8">
         <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>138</v>
       </c>
@@ -5371,14 +5380,14 @@
       </c>
       <c r="C99" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="D99" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>139</v>
       </c>
@@ -5388,28 +5397,28 @@
       </c>
       <c r="C100" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="D100" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>140</v>
       </c>
       <c r="B101" s="8" t="str" cm="1">
         <f t="array" aca="1" ref="B101" ca="1">INDEX(Departments!$B$2:$B$6,RANDBETWEEN(1,ROWS(Departments!$B$2:$B$6)),1)</f>
-        <v>Geriatrics</v>
+        <v>Pediatrics</v>
       </c>
       <c r="C101" s="8">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D101" s="8">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5422,36 +5431,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A2FB0F-523E-4233-82FE-E41CAEBB5122}">
   <dimension ref="A1:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>148</v>
       </c>
@@ -5468,7 +5477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>148</v>
       </c>
@@ -5485,7 +5494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>148</v>
       </c>
@@ -5502,7 +5511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>148</v>
       </c>
@@ -5519,7 +5528,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>148</v>
       </c>
@@ -5536,7 +5545,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>149</v>
       </c>
@@ -5553,7 +5562,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>149</v>
       </c>
@@ -5570,7 +5579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>149</v>
       </c>
@@ -5587,7 +5596,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>149</v>
       </c>
@@ -5604,7 +5613,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>149</v>
       </c>
@@ -5621,7 +5630,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>150</v>
       </c>
@@ -5638,7 +5647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>150</v>
       </c>
@@ -5655,7 +5664,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>150</v>
       </c>
@@ -5672,7 +5681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>150</v>
       </c>
@@ -5689,7 +5698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>150</v>
       </c>
@@ -5706,7 +5715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>151</v>
       </c>
@@ -5723,7 +5732,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>151</v>
       </c>
@@ -5740,7 +5749,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>151</v>
       </c>
@@ -5757,7 +5766,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>151</v>
       </c>
@@ -5774,7 +5783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>151</v>
       </c>
@@ -5791,7 +5800,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>152</v>
       </c>
@@ -5808,7 +5817,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>152</v>
       </c>
@@ -5825,7 +5834,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>152</v>
       </c>
@@ -5842,7 +5851,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>152</v>
       </c>
@@ -5859,7 +5868,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>152</v>
       </c>
